--- a/Excel/StartMachineConfig@s.xlsx
+++ b/Excel/StartMachineConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_weijing\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F3AC6-AE26-403D-9EBF-209FE9712E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928CB9DB-4F77-4833-BB36-604CE87D19E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="855" windowWidth="25845" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="5">
-        <v>20200</v>
+        <v>20301</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartMachineConfig@s.xlsx
+++ b/Excel/StartMachineConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928CB9DB-4F77-4833-BB36-604CE87D19E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E816FA-3523-42C5-B13A-F402C95F8FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1800" windowWidth="20415" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F6"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -502,6 +502,20 @@
         <v>20301</v>
       </c>
     </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20302</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
